--- a/Data Collection/Persons/Joyce Ilg/articles_Ilg_May.xlsx
+++ b/Data Collection/Persons/Joyce Ilg/articles_Ilg_May.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Joyce Ilg/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2254E-97D6-FF40-B3E1-217BED953A85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
@@ -46,30 +52,15 @@
     <t>"Organize 'n Style – Isabella räumt auf!": "Das ist der Wahnsinn!"</t>
   </si>
   <si>
-    <t>Täglich frisch geröstet: Olivia Jones bringt Knossi aus dem Konzept!</t>
-  </si>
-  <si>
-    <t>Jasmin Wagner nach ihrer Trennung: Hat sie schon einen Neuen?</t>
-  </si>
-  <si>
     <t>Jessica Ginkel („Der Lehrer“) und Golo Euler spielen Hauptrollen in „Nachricht von Mama“</t>
   </si>
   <si>
-    <t>Quoten: „Let’s Dance“ und „Der Alte“ siegen über DFB-Pokal</t>
-  </si>
-  <si>
-    <t>„Im Westen nichts Neues“: Netflix verfilmt Antikriegsroman neu</t>
-  </si>
-  <si>
     <t>T-Online</t>
   </si>
   <si>
     <t>Sixx</t>
   </si>
   <si>
-    <t>RTL.de</t>
-  </si>
-  <si>
     <t>Fernsehserien</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>Organize 'n Style. Joyce Ilg bekommt Besuch von Isabella Franke in der neuen Folge · News ... Folge 7: Ordnungsproblem bei Schauspielerin Joyce Ilg. 24 min.</t>
   </si>
   <si>
-    <t>Auch interessant. Joyce Ilg lässt Knossi staunen. Sie verrät Pikantes über ihr Sexleben · Dschungelstar Harald Glööckler. Warum er den Briten abgesagt hat.</t>
-  </si>
-  <si>
     <t>... Neue Sketchshow übernimmt „heute-show“-Sommervertretung: Mit Annette und Caroline Frier, Joyce Ilg, Diana Amft und Gisela Schneeberger (31.05.2021).</t>
   </si>
   <si>
@@ -97,19 +85,7 @@
     <t>https://www.sixx.de/tv/organize-n-style-isabella-raeumt-auf/news/organize-n-style-isabella-raeumt-auf-das-ist-der-wahnsinn-100061</t>
   </si>
   <si>
-    <t>https://www.rtl.de/cms/taeglich-frisch-geroestet-olivia-jones-bringt-knossi-aus-dem-konzept-4753883.html</t>
-  </si>
-  <si>
-    <t>https://www.rtl.de/cms/jasmin-wagner-nach-ihrer-trennung-hat-sie-schon-einen-neuen-4754903.html</t>
-  </si>
-  <si>
     <t>https://www.fernsehserien.de/news/jessica-ginkel-der-lehrer-und-golo-euler-spielen-hauptrollen-in-nachricht-von-mama</t>
-  </si>
-  <si>
-    <t>https://www.fernsehserien.de/news/quoten-let-s-dance-und-der-alte-siegen-ueber-dfb-pokal</t>
-  </si>
-  <si>
-    <t>https://www.fernsehserien.de/news/im-westen-nichts-neues-netflix-verfilmt-antikriegsroman-neu</t>
   </si>
   <si>
     <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
@@ -129,20 +105,6 @@
 Welche Tipps Isabella Franke in der Doppelfolge von "Organize 'n Style – Isabella räumt auf" einsetzt, um Julia und Robin zu helfen, siehst du heute um 18:15 Uhr auf sixx.</t>
   </si>
   <si>
-    <t>Mai 2021 - 15:38 UhrOlvia Jones' Sprüche sind eine echte Herausforderung für KnossiDragqueen Olivia Jones (51) bezeichnet sich auch selbst als "Multifunktionstranse".
-Bei "Täglich frisch geröstet" bringt sie Host Knossi mit ihren eindeutig zweideutigen Anspielungen ziemlich aus dem Konzept, wie im Video zu sehen ist.
-Kann passieren – und macht Olivia Jones gar nichts aus.
-Knossi muss es zugeben: "Ich bin leicht überfordert mit Olivia Jones".
-RTL.de empfiehlt Anzeigen:Playlist: Alle Videos zu „Täglich frisch geröstet“„Täglich frisch geröstet“ auf TVNOW streamen</t>
-  </si>
-  <si>
-    <t>Vor Kurzem hat sie die Trennung von ihrem Ehemann Frank Sippel bekannt gegeben.
-Wie fühlt sich Jasmin nach der Entscheidung?
-Sie lässt sich auf Knossis Vorschläge ein, mit wem sie sich treffen könnte.
-"Bill Gates ist nichts für mich, der ist nur der viertreichste Mensch.
-Außerdem denkt Jasmin sich schon eigene Spitznamen für Knossi aus.</t>
-  </si>
-  <si>
     <t>Erzählt wird die Geschichte eines jungen Witwers, dessen Frau ihm und den gemeinsamen Kindern Hunderte Videonachrichten voller Humor und Lebensratschläge hinterlassen hat.
 Die ganz große emotionale Bandbreite an wahrhaftigen Gefühlen findet ihren Platz bei ‚Nachricht von Mama‘: Trauer, Freude, Wut und Lebenshunger prägen den Stil dieser Serie, die nach einer wahren Begebenheit entwickelt wurde , so Carsten Kelber, Geschäftsführer und Produzent der Pyjama Pictures GmbH.
 Es handelt sich um die erste Serienproduktion von Pyjama Pictures (unter anderem verantwortlich für die Joyn-Comedy „jerks.“) für Sat.1.
@@ -150,28 +112,17 @@
 Regie führen Felix Binder und Suki Maria Roessel, die gemeinsam mit Sabine Leipert und Claudia Leins auch die Drehbücher schrieb.</t>
   </si>
   <si>
-    <t>Tagessieger beim Gesamtpublikum wurde der Krimi-Dauerbrenner „Der Alte“ im ZDF, der ebenfalls ein neues Staffelhoch verbuchte und 6,28 Millionen Menschen fesselte, die für genau 20 Prozent Marktanteil sorgten.
-Auch für „Letzte Spur Berlin“ ging es danach im Vergleich zur Vorwoche angesichts 5,29 Millionen (16,8 Prozent) nach oben.
-Bei den Jüngeren reichte es dagegen nur zu allenfalls soliden 7,4 und 6,6 Prozent.
-„Navy CIS“ und „Navy CIS: New Orleans“ sackten im weiteren Verlauf jedoch auf maue 3,5 und 3,9 Prozent ab.
-Ordentlich ließ sich die Primetime für RTL Zwei an, wo der Sci-Fi-Streifen „I am Mother“ immerhin 5,6 Prozent erreichte.</t>
-  </si>
-  <si>
-    <t>Felix Kammerer, Albrecht Schuch, Aaron Hilmer, Moritz Klaus und Edin Hasanović verkörpern in der Neuverfilmung von „Im Westen nichts Neues“ Paul Bäumer und seine Schulkameraden.
-Regisseur Edward Berger möchte gemeinsam mit Produzent Malte Grunert im Auftrag von Netflix seine filmische Interpretation dieses humanistischen Appells gegen den Schrecken des Krieges zum Leben erwecken.
-„Im Westen nichts Neues“ war einer der ersten Filme, die für den deutschen Markt synchronisiert wurden.
-Seine erste deutsche Verfilmung zu schaffen ist für mich eine der spannendsten Herausforderungen überhaupt , so Regisseur Edward Berger (u. a.
-Gedreht wird bis Ende Mai in Tschechien, veröffentlicht werden soll der Film voraussichtlich im zweiten Halbjahr 2022 bei Netflix.</t>
+    <t>flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,25 +185,34 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,14 +531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +565,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -576,28 +577,31 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44342.836581697098</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
-        <v>44342.8365816971</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -605,175 +609,64 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>44342.83658177789</v>
+        <v>44342.836581858661</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44342.83658182407</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44342.83658185866</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44342.8365819395</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
